--- a/biology/Botanique/Parc_Léo-Lagrange/Parc_Léo-Lagrange.xlsx
+++ b/biology/Botanique/Parc_Léo-Lagrange/Parc_Léo-Lagrange.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Parc_L%C3%A9o-Lagrange</t>
+          <t>Parc_Léo-Lagrange</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Le parc Léo-Lagrange est un espace vert de Reims, en France.
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Parc_L%C3%A9o-Lagrange</t>
+          <t>Parc_Léo-Lagrange</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -512,7 +524,9 @@
           <t>Histoire</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">L'espace longeant la rive gauche de la Vesle et bordant le stade Auguste-Delaune.
 			Partie humide,
@@ -529,7 +543,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Parc_L%C3%A9o-Lagrange</t>
+          <t>Parc_Léo-Lagrange</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -547,7 +561,9 @@
           <t>Localisation</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Le parc Léo-Lagrange est bordé par la rue du Général-de-Gaulle, la rue de Courlancy et l'avenue Paul-Marchandeau.
 </t>
@@ -560,7 +576,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Parc_L%C3%A9o-Lagrange</t>
+          <t>Parc_Léo-Lagrange</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -578,7 +594,9 @@
           <t>Services</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Il propose une aire de stationnement pour les véhicules, de nombreux bancs, deux aires de jeux pour enfants et une zone aménagée pour BMX, trotinettes et planches à roulettes. Il alterne des zones herbeuses et des couverts arborés.
  Portail de Reims   Portail des espaces verts                    </t>
